--- a/codelists/LABA_LAMA_SNOMED.xlsx
+++ b/codelists/LABA_LAMA_SNOMED.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,23 +360,13 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>VPID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>APID</t>
+          <t>Medcode</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28365011000001100</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>28357211000001106</t>
         </is>
       </c>
@@ -384,11 +374,6 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>39711511000001107</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>4192411000001109</t>
         </is>
       </c>
@@ -396,11 +381,6 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>39711511000001107</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
           <t>14214011000001107</t>
         </is>
       </c>
@@ -408,11 +388,6 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>36066611000001106</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>2923111000001107</t>
         </is>
       </c>
@@ -420,11 +395,6 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>36066711000001102</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t>2964011000001104</t>
         </is>
       </c>
@@ -432,11 +402,6 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>28422511000001101</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
           <t>28410811000001107</t>
         </is>
       </c>
@@ -444,11 +409,6 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>39343611000001104</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
           <t>39329111000001107</t>
         </is>
       </c>
@@ -456,11 +416,6 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>28049611000001104</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
           <t>28007211000001102</t>
         </is>
       </c>
@@ -468,11 +423,6 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>37692511000001100</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
           <t>37678011000001103</t>
         </is>
       </c>
@@ -480,11 +430,6 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>29987211000001108</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
           <t>29971311000001100</t>
         </is>
       </c>
@@ -492,11 +437,6 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>29987211000001108</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
           <t>37540311000001105</t>
         </is>
       </c>
@@ -504,11 +444,6 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>24645511000001105</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
           <t>24644611000001108</t>
         </is>
       </c>
@@ -516,11 +451,6 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>24645511000001105</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
           <t>32364511000001104</t>
         </is>
       </c>
@@ -528,11 +458,6 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>24645511000001105</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
           <t>32629811000001101</t>
         </is>
       </c>
@@ -540,12 +465,77 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>37979411000001103</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>28365011000001100</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>39711511000001107</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>36066611000001106</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>36066711000001102</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>28422511000001101</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>39343611000001104</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>28049611000001104</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>37692511000001100</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>29987211000001108</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>24645511000001105</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>37979411000001103</t>
         </is>
       </c>
     </row>
